--- a/Buyer hub/Outlets/Manual testcases/Outlets-View suppliers.xlsx
+++ b/Buyer hub/Outlets/Manual testcases/Outlets-View suppliers.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Testcases one group\Buyer hub\Outlets\Manual testcases\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zm-buyerautomation\Buyer hub\Outlets\Manual testcases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99FDDE81-9918-42FE-8D85-012C7D646728}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68232155-2BB7-448A-83A1-89A16D2E3FEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="70">
   <si>
     <t>SL. No</t>
   </si>
@@ -913,6 +913,12 @@
       </rPr>
       <t xml:space="preserve"> 'Download marketlist'</t>
     </r>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Show a confirmation step if user adds SKUs to marketlist with $0 price                                                                                                    </t>
+  </si>
+  <si>
+    <t>Once click the Add to marketlist &amp; save button, Confirmation step for buyers, only shown if the selection includes items priced $0.</t>
   </si>
 </sst>
 </file>
@@ -1365,10 +1371,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1787,7 +1793,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1798,19 +1804,16 @@
         <v>8</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>47</v>
+        <v>68</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="G19" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="57" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1821,16 +1824,19 @@
         <v>8</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+      <c r="G20" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1840,14 +1846,14 @@
       <c r="C21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D21" s="4" t="s">
-        <v>50</v>
+      <c r="D21" s="10" t="s">
+        <v>42</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F21" s="9" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1864,13 +1870,13 @@
         <v>50</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1884,12 +1890,32 @@
         <v>50</v>
       </c>
       <c r="E23" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E24" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="F23" s="9" t="s">
+      <c r="F24" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="G23" t="s">
+      <c r="G24" t="s">
         <v>61</v>
       </c>
     </row>

--- a/Buyer hub/Outlets/Manual testcases/Outlets-View suppliers.xlsx
+++ b/Buyer hub/Outlets/Manual testcases/Outlets-View suppliers.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zm-buyerautomation\Buyer hub\Outlets\Manual testcases\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Testcases one group\Buyer hub\Outlets\Manual testcases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68232155-2BB7-448A-83A1-89A16D2E3FEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99FDDE81-9918-42FE-8D85-012C7D646728}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="68">
   <si>
     <t>SL. No</t>
   </si>
@@ -913,12 +913,6 @@
       </rPr>
       <t xml:space="preserve"> 'Download marketlist'</t>
     </r>
-  </si>
-  <si>
-    <t xml:space="preserve">1.Show a confirmation step if user adds SKUs to marketlist with $0 price                                                                                                    </t>
-  </si>
-  <si>
-    <t>Once click the Add to marketlist &amp; save button, Confirmation step for buyers, only shown if the selection includes items priced $0.</t>
   </si>
 </sst>
 </file>
@@ -1371,10 +1365,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1793,7 +1787,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="57" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1804,16 +1798,19 @@
         <v>8</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+      <c r="G19" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1824,19 +1821,16 @@
         <v>8</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="G20" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1846,14 +1840,14 @@
       <c r="C21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D21" s="10" t="s">
-        <v>42</v>
+      <c r="D21" s="4" t="s">
+        <v>50</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="F21" s="9" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1870,13 +1864,13 @@
         <v>50</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1890,32 +1884,12 @@
         <v>50</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="F23" s="9" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>23</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="E24" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="F24" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="G24" t="s">
+      <c r="G23" t="s">
         <v>61</v>
       </c>
     </row>

--- a/Buyer hub/Outlets/Manual testcases/Outlets-View suppliers.xlsx
+++ b/Buyer hub/Outlets/Manual testcases/Outlets-View suppliers.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Testcases one group\Buyer hub\Outlets\Manual testcases\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zm-buyerautomation\Buyer hub\Outlets\Manual testcases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99FDDE81-9918-42FE-8D85-012C7D646728}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3E34C0C-2EE9-4BC9-9BEF-94576DEC5B93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="70">
   <si>
     <t>SL. No</t>
   </si>
@@ -833,9 +833,6 @@
     <t>It displayed the Orders page by clicking the View orders</t>
   </si>
   <si>
-    <t>p</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve"> </t>
     </r>
@@ -912,6 +909,51 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> 'Download marketlist'</t>
+    </r>
+  </si>
+  <si>
+    <t>View suppliers-&gt;Marketlist screen-&gt;Add SKU(new implement)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> If click check box and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Add to market list &amp; save,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Confirmation step for buyers, only shown if the selection includes items priced $0.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">It displayed the pop up screen </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,Cancel and Yes, add select item(s) to market list</t>
     </r>
   </si>
 </sst>
@@ -1365,10 +1407,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" topLeftCell="D6" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1508,13 +1550,13 @@
         <v>8</v>
       </c>
       <c r="D6" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="F6" s="9" t="s">
         <v>62</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>63</v>
       </c>
       <c r="G6" t="s">
         <v>12</v>
@@ -1531,13 +1573,13 @@
         <v>8</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E7" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="F7" s="9" t="s">
         <v>65</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>66</v>
       </c>
       <c r="G7" t="s">
         <v>12</v>
@@ -1700,6 +1742,9 @@
       <c r="F14" s="9" t="s">
         <v>33</v>
       </c>
+      <c r="G14" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="15" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15">
@@ -1720,6 +1765,9 @@
       <c r="F15" t="s">
         <v>34</v>
       </c>
+      <c r="G15" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="16" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16">
@@ -1740,6 +1788,9 @@
       <c r="F16" s="9" t="s">
         <v>35</v>
       </c>
+      <c r="G16" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="17" spans="1:7" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17">
@@ -1829,30 +1880,33 @@
       <c r="F20" s="9" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>20</v>
-      </c>
+      <c r="G20" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D21" s="4" t="s">
-        <v>50</v>
+      <c r="D21" s="10" t="s">
+        <v>67</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="F21" s="9" t="s">
-        <v>51</v>
+        <v>69</v>
+      </c>
+      <c r="G21" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>7</v>
@@ -1864,15 +1918,18 @@
         <v>50</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+      <c r="G22" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>7</v>
@@ -1884,13 +1941,36 @@
         <v>50</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="F23" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="G23" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="F24" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="G23" t="s">
-        <v>61</v>
+      <c r="G24" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Buyer hub/Outlets/Manual testcases/Outlets-View suppliers.xlsx
+++ b/Buyer hub/Outlets/Manual testcases/Outlets-View suppliers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zm-buyerautomation\Buyer hub\Outlets\Manual testcases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3E34C0C-2EE9-4BC9-9BEF-94576DEC5B93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED41E5EB-E426-4621-A1DF-C5493CF96A69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="71">
   <si>
     <t>SL. No</t>
   </si>
@@ -731,6 +731,206 @@
     <t>It display the Options and right side select all or Deselect all and click Ok option ,It displayed successfully copied</t>
   </si>
   <si>
+    <t>It successfully downloaded</t>
+  </si>
+  <si>
+    <t>It gets displayed the View orders and View market list</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Action-&gt;View suppliers-&gt;View orders</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Select </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'View Orders'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> it goes to Order page and All order tab is selected by default</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Select particular supplier and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Action</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> dropdown</t>
+    </r>
+  </si>
+  <si>
+    <t>It displayed the Orders page by clicking the View orders</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Action-&gt;View suppliers-&gt;View Market list</t>
+    </r>
+  </si>
+  <si>
+    <t>It displayed the Market list page</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">If you select </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'View market list'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> it goes to Market list screen</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">By clicking View market list it comes </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Product code or name, Show Favourites only, Add SKU, Options</t>
+    </r>
+  </si>
+  <si>
+    <t>It displayed the Product code or name, Show Favourites only, Add SKU, Options</t>
+  </si>
+  <si>
+    <r>
+      <t>If you click</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 'Download marketlist'</t>
+    </r>
+  </si>
+  <si>
+    <t>View suppliers-&gt;Marketlist screen-&gt;Add SKU(new implement)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> If click check box and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Add to market list &amp; save,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Confirmation step for buyers, only shown if the selection includes items priced $0.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">It displayed the pop up screen </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,Cancel and Yes, add select item(s) to market list</t>
+    </r>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">Select the </t>
     </r>
@@ -753,14 +953,40 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">,it comes pop up page is like Custom name, Tags, Buyer product code and Ok </t>
-    </r>
-  </si>
-  <si>
-    <t>It successfully downloaded</t>
-  </si>
-  <si>
-    <t>It gets displayed the View orders and View market list</t>
+      <t xml:space="preserve">,it comes pop up page is like                                                                                                                                  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">1. Select what to copy : Custom name, Tags, Buyer product code, Unit price and MOQ    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">                                                                                                                </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2.Copy to : Outlet name and Ok</t>
+    </r>
   </si>
   <si>
     <r>
@@ -774,186 +1000,16 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>Action-&gt;View suppliers-&gt;View orders</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Select </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>'View Orders'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> it goes to Order page and All order tab is selected by default</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Select particular supplier and </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Action</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> dropdown</t>
-    </r>
-  </si>
-  <si>
-    <t>It displayed the Orders page by clicking the View orders</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Action-&gt;View suppliers-&gt;View Market list</t>
-    </r>
-  </si>
-  <si>
-    <t>It displayed the Market list page</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">If you select </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>'View market list'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> it goes to Market list screen</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">By clicking View market list it comes </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Product code or name, Show Favourites only, Add SKU, Options</t>
-    </r>
-  </si>
-  <si>
-    <t>It displayed the Product code or name, Show Favourites only, Add SKU, Options</t>
-  </si>
-  <si>
-    <r>
-      <t>If you click</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 'Download marketlist'</t>
-    </r>
-  </si>
-  <si>
-    <t>View suppliers-&gt;Marketlist screen-&gt;Add SKU(new implement)</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve"> If click check box and </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Add to market list &amp; save,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Confirmation step for buyers, only shown if the selection includes items priced $0.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">It displayed the pop up screen </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,Cancel and Yes, add select item(s) to market list</t>
+      <t>Action-&gt;View suppliers-&gt;Marketlist screen-&gt;Options</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>(new)</t>
     </r>
   </si>
 </sst>
@@ -1409,8 +1465,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D6" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1507,10 +1563,10 @@
         <v>19</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G4" t="s">
         <v>12</v>
@@ -1527,13 +1583,13 @@
         <v>8</v>
       </c>
       <c r="D5" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E5" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="E5" s="11" t="s">
-        <v>58</v>
-      </c>
       <c r="F5" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G5" t="s">
         <v>12</v>
@@ -1550,13 +1606,13 @@
         <v>8</v>
       </c>
       <c r="D6" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="F6" s="9" t="s">
         <v>61</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>62</v>
       </c>
       <c r="G6" t="s">
         <v>12</v>
@@ -1573,13 +1629,13 @@
         <v>8</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E7" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="F7" s="9" t="s">
         <v>64</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>65</v>
       </c>
       <c r="G7" t="s">
         <v>12</v>
@@ -1892,13 +1948,13 @@
         <v>8</v>
       </c>
       <c r="D21" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="E21" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="E21" s="9" t="s">
+      <c r="F21" s="9" t="s">
         <v>68</v>
-      </c>
-      <c r="F21" s="9" t="s">
-        <v>69</v>
       </c>
       <c r="G21" t="s">
         <v>12</v>
@@ -1927,7 +1983,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>21</v>
       </c>
@@ -1938,10 +1994,10 @@
         <v>8</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="F23" s="9" t="s">
         <v>53</v>
@@ -1964,10 +2020,10 @@
         <v>50</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F24" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G24" t="s">
         <v>12</v>

--- a/Buyer hub/Outlets/Manual testcases/Outlets-View suppliers.xlsx
+++ b/Buyer hub/Outlets/Manual testcases/Outlets-View suppliers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zm-buyerautomation\Buyer hub\Outlets\Manual testcases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED41E5EB-E426-4621-A1DF-C5493CF96A69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58C46C1A-2264-4A8A-BCEE-79A7A5572A78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="72">
   <si>
     <t>SL. No</t>
   </si>
@@ -257,9 +257,6 @@
     <t xml:space="preserve">Tick the check box of product </t>
   </si>
   <si>
-    <t>It displayed Clear, Edit tags, and Delete</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve"> </t>
     </r>
@@ -712,6 +709,206 @@
     <t>It ge displayed the list</t>
   </si>
   <si>
+    <t>It successfully downloaded</t>
+  </si>
+  <si>
+    <t>It gets displayed the View orders and View market list</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Action-&gt;View suppliers-&gt;View orders</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Select </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'View Orders'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> it goes to Order page and All order tab is selected by default</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Select particular supplier and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Action</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> dropdown</t>
+    </r>
+  </si>
+  <si>
+    <t>It displayed the Orders page by clicking the View orders</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Action-&gt;View suppliers-&gt;View Market list</t>
+    </r>
+  </si>
+  <si>
+    <t>It displayed the Market list page</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">If you select </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'View market list'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> it goes to Market list screen</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">By clicking View market list it comes </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Product code or name, Show Favourites only, Add SKU, Options</t>
+    </r>
+  </si>
+  <si>
+    <t>It displayed the Product code or name, Show Favourites only, Add SKU, Options</t>
+  </si>
+  <si>
+    <r>
+      <t>If you click</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 'Download marketlist'</t>
+    </r>
+  </si>
+  <si>
+    <t>View suppliers-&gt;Marketlist screen-&gt;Add SKU(new implement)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> If click check box and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Add to market list &amp; save,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Confirmation step for buyers, only shown if the selection includes items priced $0.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">It displayed the pop up screen </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,Cancel and Yes, add select item(s) to market list</t>
+    </r>
+  </si>
+  <si>
     <r>
       <t>If you click the Option list it will show</t>
     </r>
@@ -724,17 +921,11 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> Copy data to another outlet and Download marketlist</t>
-    </r>
-  </si>
-  <si>
-    <t>It display the Options and right side select all or Deselect all and click Ok option ,It displayed successfully copied</t>
-  </si>
-  <si>
-    <t>It successfully downloaded</t>
-  </si>
-  <si>
-    <t>It gets displayed the View orders and View market list</t>
+      <t xml:space="preserve">  Download marketlist</t>
+    </r>
+  </si>
+  <si>
+    <t>It displayed Clear, Edit tags, Enable, Disable and Delete</t>
   </si>
   <si>
     <r>
@@ -748,63 +939,33 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>Action-&gt;View suppliers-&gt;View orders</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Select </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>'View Orders'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> it goes to Order page and All order tab is selected by default</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Select particular supplier and </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Action</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> dropdown</t>
-    </r>
-  </si>
-  <si>
-    <t>It displayed the Orders page by clicking the View orders</t>
+      <t>Action-&gt;View suppliers-&gt;Check box</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>(New)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Once click the One or more items are selected, display an option to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Copy to other outlets"</t>
+    </r>
   </si>
   <si>
     <r>
@@ -818,116 +979,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>Action-&gt;View suppliers-&gt;View Market list</t>
-    </r>
-  </si>
-  <si>
-    <t>It displayed the Market list page</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">If you select </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>'View market list'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> it goes to Market list screen</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">By clicking View market list it comes </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Product code or name, Show Favourites only, Add SKU, Options</t>
-    </r>
-  </si>
-  <si>
-    <t>It displayed the Product code or name, Show Favourites only, Add SKU, Options</t>
-  </si>
-  <si>
-    <r>
-      <t>If you click</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 'Download marketlist'</t>
-    </r>
-  </si>
-  <si>
-    <t>View suppliers-&gt;Marketlist screen-&gt;Add SKU(new implement)</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve"> If click check box and </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Add to market list &amp; save,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Confirmation step for buyers, only shown if the selection includes items priced $0.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">It displayed the pop up screen </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,Cancel and Yes, add select item(s) to market list</t>
+      <t>Action-&gt;View suppliers-&gt;Check box-&gt;Copy to other outlets(New)</t>
     </r>
   </si>
   <si>
@@ -943,7 +995,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>'Copy data to another outlet'</t>
+      <t>'Copy to other outlet'</t>
     </r>
     <r>
       <rPr>
@@ -964,7 +1016,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">1. Select what to copy : Custom name, Tags, Buyer product code, Unit price and MOQ    </t>
+      <t xml:space="preserve">1. Select what to copy : Custom name, Item status(enable/disable) Tags, Buyer product code, Unit price and MOQ, Select all  </t>
     </r>
     <r>
       <rPr>
@@ -985,31 +1037,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>2.Copy to : Outlet name and Ok</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Action-&gt;View suppliers-&gt;Marketlist screen-&gt;Options</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>(new)</t>
+      <t>2.Copy to : Outlet name and Ok and Select all</t>
     </r>
   </si>
 </sst>
@@ -1463,10 +1491,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1563,10 +1591,10 @@
         <v>19</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G4" t="s">
         <v>12</v>
@@ -1583,13 +1611,13 @@
         <v>8</v>
       </c>
       <c r="D5" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="F5" s="9" t="s">
         <v>56</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>59</v>
       </c>
       <c r="G5" t="s">
         <v>12</v>
@@ -1606,13 +1634,13 @@
         <v>8</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G6" t="s">
         <v>12</v>
@@ -1629,13 +1657,13 @@
         <v>8</v>
       </c>
       <c r="D7" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E7" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="E7" s="11" t="s">
-        <v>63</v>
-      </c>
       <c r="F7" s="9" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="G7" t="s">
         <v>12</v>
@@ -1675,7 +1703,7 @@
         <v>8</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E9" s="9" t="s">
         <v>20</v>
@@ -1704,7 +1732,7 @@
         <v>22</v>
       </c>
       <c r="F10" t="s">
-        <v>23</v>
+        <v>67</v>
       </c>
       <c r="G10" t="s">
         <v>12</v>
@@ -1721,19 +1749,13 @@
         <v>8</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>24</v>
+        <v>68</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="F11" t="s">
-        <v>25</v>
-      </c>
-      <c r="G11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1744,42 +1766,36 @@
         <v>8</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>26</v>
+        <v>70</v>
       </c>
       <c r="E12" s="9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="F12" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="G12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>30</v>
-      </c>
       <c r="F13" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="G13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1790,13 +1806,13 @@
         <v>8</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="G14" t="s">
         <v>12</v>
@@ -1813,19 +1829,19 @@
         <v>8</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="F15" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="G15" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1836,19 +1852,19 @@
         <v>8</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G16" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1858,20 +1874,20 @@
       <c r="C17" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D17" s="10" t="s">
-        <v>42</v>
+      <c r="D17" s="4" t="s">
+        <v>38</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="F17" s="9" t="s">
-        <v>40</v>
+        <v>36</v>
+      </c>
+      <c r="F17" t="s">
+        <v>33</v>
       </c>
       <c r="G17" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1881,20 +1897,20 @@
       <c r="C18" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D18" s="10" t="s">
-        <v>42</v>
+      <c r="D18" s="4" t="s">
+        <v>38</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="G18" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1905,19 +1921,19 @@
         <v>8</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="G19" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1928,104 +1944,127 @@
         <v>8</v>
       </c>
       <c r="D20" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="E20" s="9" t="s">
+      <c r="G20" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="G21" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="F22" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="F20" s="9" t="s">
+      <c r="G22" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="G23" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="G20" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D21" s="10" t="s">
+      <c r="E24" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="E21" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="F21" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="G21" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>20</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D22" s="4" t="s">
+      <c r="F24" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="E22" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="F22" s="9" t="s">
+    </row>
+    <row r="25" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="F25" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="G22" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>21</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="E23" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="F23" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="G23" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>22</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="E24" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="F24" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="G24" t="s">
+      <c r="G25" t="s">
         <v>12</v>
       </c>
     </row>

--- a/Buyer hub/Outlets/Manual testcases/Outlets-View suppliers.xlsx
+++ b/Buyer hub/Outlets/Manual testcases/Outlets-View suppliers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zm-buyerautomation\Buyer hub\Outlets\Manual testcases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED41E5EB-E426-4621-A1DF-C5493CF96A69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C34818F3-E71B-4A3F-BA8E-0C50C3A96CE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="73">
   <si>
     <t>SL. No</t>
   </si>
@@ -1010,6 +1010,25 @@
         <family val="2"/>
       </rPr>
       <t>(new)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> Action-&gt;View suppliers-&gt;Marketlist screen-&gt;Options(new)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Once download the marketlist and open the Excel file,It should display include </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Custom name and Buyer product code"</t>
     </r>
   </si>
 </sst>
@@ -1463,10 +1482,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" topLeftCell="D23" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2002,9 +2021,6 @@
       <c r="F23" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="G23" t="s">
-        <v>12</v>
-      </c>
     </row>
     <row r="24" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24">
@@ -2028,6 +2044,21 @@
       <c r="G24" t="s">
         <v>12</v>
       </c>
+    </row>
+    <row r="25" spans="1:7" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="F25" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Buyer hub/Outlets/Manual testcases/Outlets-View suppliers.xlsx
+++ b/Buyer hub/Outlets/Manual testcases/Outlets-View suppliers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zm-buyerautomation\Buyer hub\Outlets\Manual testcases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6507F585-810F-4651-B40A-4671A26E313D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC99B322-C07F-479C-9B05-0EE3CD9EECA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1484,8 +1484,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B22" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1960,6 +1960,9 @@
       </c>
     </row>
     <row r="21" spans="1:7" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
       <c r="B21" s="2" t="s">
         <v>7</v>
       </c>
@@ -1981,7 +1984,7 @@
     </row>
     <row r="22" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>7</v>
@@ -2004,7 +2007,7 @@
     </row>
     <row r="23" spans="1:7" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>7</v>
@@ -2024,7 +2027,7 @@
     </row>
     <row r="24" spans="1:7" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>7</v>
@@ -2047,7 +2050,7 @@
     </row>
     <row r="25" spans="1:7" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>7</v>

--- a/Buyer hub/Outlets/Manual testcases/Outlets-View suppliers.xlsx
+++ b/Buyer hub/Outlets/Manual testcases/Outlets-View suppliers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zm-buyerautomation\Buyer hub\Outlets\Manual testcases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC99B322-C07F-479C-9B05-0EE3CD9EECA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51C65FEA-1936-4B69-973F-79195FAE91EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="74">
   <si>
     <t>SL. No</t>
   </si>
@@ -1030,6 +1030,9 @@
       </rPr>
       <t>"Custom name and Buyer product code"</t>
     </r>
+  </si>
+  <si>
+    <t>It gets displayed the Custom name and Buyer product code in Excel.</t>
   </si>
 </sst>
 </file>
@@ -1484,8 +1487,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView tabSelected="1" topLeftCell="C22" workbookViewId="0">
+      <selection activeCell="D20" sqref="A20:XFD20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1913,7 +1916,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1936,7 +1939,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2064,7 +2067,12 @@
       <c r="E25" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="F25" s="9"/>
+      <c r="F25" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="G25" t="s">
+        <v>12</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Buyer hub/Outlets/Manual testcases/Outlets-View suppliers.xlsx
+++ b/Buyer hub/Outlets/Manual testcases/Outlets-View suppliers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zm-buyerautomation\Buyer hub\Outlets\Manual testcases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51C65FEA-1936-4B69-973F-79195FAE91EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49D6D86F-D1F1-4681-ADB1-F3D809E0E98A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="72">
   <si>
     <t>SL. No</t>
   </si>
@@ -709,25 +709,6 @@
     </r>
   </si>
   <si>
-    <t>It ge displayed the list</t>
-  </si>
-  <si>
-    <r>
-      <t>If you click the Option list it will show</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Copy data to another outlet and Download marketlist</t>
-    </r>
-  </si>
-  <si>
     <t>It display the Options and right side select all or Deselect all and click Ok option ,It displayed successfully copied</t>
   </si>
   <si>
@@ -989,6 +970,28 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve"> Action-&gt;View suppliers-&gt;Marketlist screen-&gt;Options(new)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Once download the marketlist and open the Excel file,It should display include </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Custom name and Buyer product code"</t>
+    </r>
+  </si>
+  <si>
+    <t>It gets displayed the Custom name and Buyer product code in Excel.</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve"> </t>
     </r>
@@ -1000,7 +1003,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>Action-&gt;View suppliers-&gt;Marketlist screen-&gt;Options</t>
+      <t>Action-&gt;View suppliers-&gt;Marketlist screen-&gt;select checkbox</t>
     </r>
     <r>
       <rPr>
@@ -1011,28 +1014,6 @@
       </rPr>
       <t>(new)</t>
     </r>
-  </si>
-  <si>
-    <t xml:space="preserve"> Action-&gt;View suppliers-&gt;Marketlist screen-&gt;Options(new)</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Once download the marketlist and open the Excel file,It should display include </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"Custom name and Buyer product code"</t>
-    </r>
-  </si>
-  <si>
-    <t>It gets displayed the Custom name and Buyer product code in Excel.</t>
   </si>
 </sst>
 </file>
@@ -1485,10 +1466,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C22" workbookViewId="0">
-      <selection activeCell="D20" sqref="A20:XFD20"/>
+    <sheetView tabSelected="1" topLeftCell="B20" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1585,10 +1566,10 @@
         <v>19</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G4" t="s">
         <v>12</v>
@@ -1605,13 +1586,13 @@
         <v>8</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E5" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="F5" s="9" t="s">
         <v>57</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>59</v>
       </c>
       <c r="G5" t="s">
         <v>12</v>
@@ -1628,13 +1609,13 @@
         <v>8</v>
       </c>
       <c r="D6" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E6" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="E6" s="11" t="s">
-        <v>62</v>
-      </c>
       <c r="F6" s="9" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G6" t="s">
         <v>12</v>
@@ -1651,13 +1632,13 @@
         <v>8</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G7" t="s">
         <v>12</v>
@@ -1973,19 +1954,19 @@
         <v>8</v>
       </c>
       <c r="D21" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="F21" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="E21" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="F21" s="9" t="s">
-        <v>68</v>
-      </c>
       <c r="G21" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1996,10 +1977,10 @@
         <v>8</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="F22" s="9" t="s">
         <v>51</v>
@@ -2008,7 +1989,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -2019,16 +2000,19 @@
         <v>8</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="F23" s="9" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+      <c r="G23" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2039,38 +2023,15 @@
         <v>8</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="F24" s="9" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="G24" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>24</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="E25" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="F25" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="G25" t="s">
         <v>12</v>
       </c>
     </row>

--- a/Buyer hub/Outlets/Manual testcases/Outlets-View suppliers.xlsx
+++ b/Buyer hub/Outlets/Manual testcases/Outlets-View suppliers.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zm-buyerautomation\Buyer hub\Outlets\Manual testcases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49D6D86F-D1F1-4681-ADB1-F3D809E0E98A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AB375FD-ED68-4BEF-AF31-46967F2999FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="80">
   <si>
     <t>SL. No</t>
   </si>
@@ -715,9 +715,6 @@
     <t>It successfully downloaded</t>
   </si>
   <si>
-    <t>It gets displayed the View orders and View market list</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve"> </t>
     </r>
@@ -970,9 +967,6 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve"> Action-&gt;View suppliers-&gt;Marketlist screen-&gt;Options(new)</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Once download the marketlist and open the Excel file,It should display include </t>
     </r>
@@ -1013,6 +1007,136 @@
         <family val="2"/>
       </rPr>
       <t>(new)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">It gets displayed the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>View orders,View market list and View supplier settings</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Action-&gt;View suppliers-&gt;View supplier settings</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">It shows </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Orders under Notifications, minimum order, Delivery policy &amp; cutoff times, Invoices and Invoice details, Cancel and Save"</t>
+    </r>
+  </si>
+  <si>
+    <t>It gets displayed</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Action-&gt;View suppliers-&gt;View supplier settings-&gt;Notifications</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">It gets displayed </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Minimum order field,                                                  Delivery policy &amp; cutoff times :- 1. Do not apply delivery fee        2.Apply fee and Cancelling after cutoff                                                       3.Delivery on and CutOff time"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Action-&gt;View suppliers-&gt;View supplier settings-&gt;Invoices</t>
+    </r>
+  </si>
+  <si>
+    <t>Invoice details : Recipient email, Payment terms, Our salesperson, Notes</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Action-&gt;View suppliers-&gt;Marketlist screen-&gt;Options(new)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">By email field and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Other notifications methods SMS and WhatsApp and Add button"</t>
     </r>
   </si>
 </sst>
@@ -1157,7 +1281,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1184,6 +1308,9 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1466,10 +1593,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B20" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1566,10 +1693,10 @@
         <v>19</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="G4" t="s">
         <v>12</v>
@@ -1586,13 +1713,13 @@
         <v>8</v>
       </c>
       <c r="D5" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E5" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="E5" s="11" t="s">
-        <v>55</v>
-      </c>
       <c r="F5" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G5" t="s">
         <v>12</v>
@@ -1609,13 +1736,13 @@
         <v>8</v>
       </c>
       <c r="D6" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="F6" s="9" t="s">
         <v>58</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>59</v>
       </c>
       <c r="G6" t="s">
         <v>12</v>
@@ -1632,19 +1759,19 @@
         <v>8</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E7" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="F7" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="F7" s="9" t="s">
-        <v>62</v>
-      </c>
       <c r="G7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1655,19 +1782,19 @@
         <v>8</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" t="s">
-        <v>16</v>
+        <v>71</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>72</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>17</v>
+        <v>73</v>
       </c>
       <c r="G8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1678,19 +1805,19 @@
         <v>8</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F9" t="s">
-        <v>18</v>
+        <v>74</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>75</v>
       </c>
       <c r="G9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1701,19 +1828,19 @@
         <v>8</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10" t="s">
-        <v>22</v>
-      </c>
-      <c r="F10" t="s">
-        <v>23</v>
+        <v>76</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>73</v>
       </c>
       <c r="G10" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1724,19 +1851,19 @@
         <v>8</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="F11" t="s">
-        <v>25</v>
+        <v>19</v>
+      </c>
+      <c r="E11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="G11" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1747,19 +1874,19 @@
         <v>8</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="F12" s="9" t="s">
-        <v>27</v>
+        <v>20</v>
+      </c>
+      <c r="F12" t="s">
+        <v>18</v>
       </c>
       <c r="G12" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1770,19 +1897,19 @@
         <v>8</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>30</v>
+        <v>21</v>
+      </c>
+      <c r="E13" t="s">
+        <v>22</v>
       </c>
       <c r="F13" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="G13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1793,19 +1920,19 @@
         <v>8</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="F14" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
+      </c>
+      <c r="F14" t="s">
+        <v>25</v>
       </c>
       <c r="G14" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1816,19 +1943,19 @@
         <v>8</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="F15" t="s">
-        <v>34</v>
+        <v>31</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>27</v>
       </c>
       <c r="G15" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1839,19 +1966,19 @@
         <v>8</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="F16" s="9" t="s">
-        <v>35</v>
+        <v>30</v>
+      </c>
+      <c r="F16" t="s">
+        <v>29</v>
       </c>
       <c r="G16" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1861,20 +1988,20 @@
       <c r="C17" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D17" s="10" t="s">
-        <v>42</v>
+      <c r="D17" s="4" t="s">
+        <v>39</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G17" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1884,20 +2011,20 @@
       <c r="C18" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D18" s="10" t="s">
-        <v>42</v>
+      <c r="D18" s="4" t="s">
+        <v>39</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="F18" s="9" t="s">
-        <v>43</v>
+        <v>37</v>
+      </c>
+      <c r="F18" t="s">
+        <v>34</v>
       </c>
       <c r="G18" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1907,20 +2034,20 @@
       <c r="C19" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D19" s="10" t="s">
-        <v>45</v>
+      <c r="D19" s="4" t="s">
+        <v>39</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="G19" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1934,16 +2061,16 @@
         <v>42</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="G20" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1954,19 +2081,19 @@
         <v>8</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="F21" s="9" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="G21" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1976,20 +2103,20 @@
       <c r="C22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D22" s="4" t="s">
-        <v>71</v>
+      <c r="D22" s="10" t="s">
+        <v>45</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="G22" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1999,20 +2126,20 @@
       <c r="C23" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D23" s="4" t="s">
-        <v>50</v>
+      <c r="D23" s="10" t="s">
+        <v>42</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="F23" s="9" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G23" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2022,16 +2149,85 @@
       <c r="C24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D24" s="4" t="s">
+      <c r="D24" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="F24" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="G24" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="F25" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="G25" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="F26" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="G26" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="F27" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="E24" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="F24" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="G24" t="s">
+      <c r="G27" t="s">
         <v>12</v>
       </c>
     </row>

--- a/Buyer hub/Outlets/Manual testcases/Outlets-View suppliers.xlsx
+++ b/Buyer hub/Outlets/Manual testcases/Outlets-View suppliers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zm-buyerautomation\Buyer hub\Outlets\Manual testcases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AB375FD-ED68-4BEF-AF31-46967F2999FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74CA9D21-4694-47DB-AD3D-8BC58F32002E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1595,7 +1595,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>

--- a/Buyer hub/Outlets/Manual testcases/Outlets-View suppliers.xlsx
+++ b/Buyer hub/Outlets/Manual testcases/Outlets-View suppliers.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zm-buyerautomation\Buyer hub\Outlets\Manual testcases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74CA9D21-4694-47DB-AD3D-8BC58F32002E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35EFBDA7-11D1-41E3-A9BC-D203AF6C89A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="82">
   <si>
     <t>SL. No</t>
   </si>
@@ -1076,6 +1076,55 @@
   </si>
   <si>
     <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Action-&gt;View suppliers-&gt;View supplier settings-&gt;Invoices</t>
+    </r>
+  </si>
+  <si>
+    <t>Invoice details : Recipient email, Payment terms, Our salesperson, Notes</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Action-&gt;View suppliers-&gt;Marketlist screen-&gt;Options(new)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">By email field and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Other notifications methods SMS and WhatsApp and Add button"</t>
+    </r>
+  </si>
+  <si>
+    <r>
       <t xml:space="preserve">It gets displayed </t>
     </r>
     <r>
@@ -1087,56 +1136,57 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>"Minimum order field,                                                  Delivery policy &amp; cutoff times :- 1. Do not apply delivery fee        2.Apply fee and Cancelling after cutoff                                                       3.Delivery on and CutOff time"</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Action-&gt;View suppliers-&gt;View supplier settings-&gt;Invoices</t>
-    </r>
-  </si>
-  <si>
-    <t>Invoice details : Recipient email, Payment terms, Our salesperson, Notes</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Action-&gt;View suppliers-&gt;Marketlist screen-&gt;Options(new)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">By email field and </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"Other notifications methods SMS and WhatsApp and Add button"</t>
+      <t>"Minimum order field,                                                  Delivery policy &amp; cutoff times :- 1. Do not apply delivery fee        2.Apply fee and Cancelling after cutoff                                                    3.Cancelling after cutOff                                                                           4.Delivery on and CutOff time"</t>
+    </r>
+  </si>
+  <si>
+    <t>For Active supplier couldn’t edit only View,it gets diaplayed the max number is one number for SMS and Whatsapp</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">You can Edit only for </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Passive </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>supplier can View and Edit, single field for entering only 1 number in each field as</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> SMS and Whatsapp</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> field</t>
     </r>
   </si>
 </sst>
@@ -1593,10 +1643,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" topLeftCell="D5" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1794,7 +1844,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1808,125 +1858,122 @@
         <v>74</v>
       </c>
       <c r="E9" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="F9" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="G9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="G10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="G9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="4" t="s">
+      <c r="E11" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="E10" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="F10" s="9" t="s">
+      <c r="F11" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="G10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11">
+      <c r="G11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12">
         <v>10</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" s="4" t="s">
+      <c r="B12" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E12" t="s">
         <v>16</v>
       </c>
-      <c r="F11" s="9" t="s">
+      <c r="F12" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12">
+      <c r="G12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13">
         <v>11</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" s="4" t="s">
+      <c r="B13" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="E12" s="9" t="s">
+      <c r="E13" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F13" t="s">
         <v>18</v>
       </c>
-      <c r="G12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" s="4" t="s">
+      <c r="G13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E14" t="s">
         <v>22</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F14" t="s">
         <v>23</v>
-      </c>
-      <c r="G13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="F14" t="s">
-        <v>25</v>
       </c>
       <c r="G14" t="s">
         <v>12</v>
@@ -1934,76 +1981,76 @@
     </row>
     <row r="15" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F15" t="s">
+        <v>25</v>
+      </c>
+      <c r="G15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16">
         <v>14</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15" s="4" t="s">
+      <c r="B16" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E15" s="9" t="s">
+      <c r="E16" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="F15" s="9" t="s">
+      <c r="F16" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="G15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16">
+      <c r="G16" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17">
         <v>15</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D16" s="4" t="s">
+      <c r="B17" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E16" s="9" t="s">
+      <c r="E17" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F17" t="s">
         <v>29</v>
       </c>
-      <c r="G16" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17">
+      <c r="G17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18">
         <v>16</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="F17" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="G17" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>7</v>
@@ -2015,18 +2062,18 @@
         <v>39</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="F18" t="s">
-        <v>34</v>
+        <v>38</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>33</v>
       </c>
       <c r="G18" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>7</v>
@@ -2038,41 +2085,41 @@
         <v>39</v>
       </c>
       <c r="E19" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F19" t="s">
+        <v>34</v>
+      </c>
+      <c r="G19" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E20" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="F19" s="9" t="s">
+      <c r="F20" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="G19" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20">
+      <c r="G20" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21">
         <v>19</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D20" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="E20" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="F20" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="G20" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>7</v>
@@ -2084,150 +2131,173 @@
         <v>42</v>
       </c>
       <c r="E21" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="G21" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="E22" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="F21" s="9" t="s">
+      <c r="F22" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="G21" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22">
+      <c r="G22" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23">
         <v>21</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D22" s="10" t="s">
+      <c r="B23" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="E22" s="9" t="s">
+      <c r="E23" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="F22" s="9" t="s">
+      <c r="F23" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="G22" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23">
+      <c r="G23" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24">
         <v>22</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D23" s="10" t="s">
+      <c r="B24" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="E23" s="9" t="s">
+      <c r="E24" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="F23" s="9" t="s">
+      <c r="F24" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="G23" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24">
+      <c r="G24" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25">
         <v>23</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D24" s="10" t="s">
+      <c r="B25" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="E24" s="9" t="s">
+      <c r="E25" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="F24" s="9" t="s">
+      <c r="F25" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="G24" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25">
+      <c r="G25" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26">
         <v>24</v>
       </c>
-      <c r="B25" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D25" s="4" t="s">
+      <c r="B26" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="E25" s="9" t="s">
+      <c r="E26" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="F25" s="9" t="s">
+      <c r="F26" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="G25" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26">
+      <c r="G26" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27">
         <v>25</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D26" s="4" t="s">
+      <c r="B27" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D27" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="E26" s="9" t="s">
+      <c r="E27" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="F26" s="9" t="s">
+      <c r="F27" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="G26" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27">
+      <c r="G27" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28">
         <v>26</v>
       </c>
-      <c r="B27" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="E27" s="9" t="s">
+      <c r="B28" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E28" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="F27" s="9" t="s">
+      <c r="F28" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="G27" t="s">
+      <c r="G28" t="s">
         <v>12</v>
       </c>
     </row>

--- a/Buyer hub/Outlets/Manual testcases/Outlets-View suppliers.xlsx
+++ b/Buyer hub/Outlets/Manual testcases/Outlets-View suppliers.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zm-buyerautomation\Buyer hub\Outlets\Manual testcases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35EFBDA7-11D1-41E3-A9BC-D203AF6C89A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90BA0225-CFFF-46B5-A007-5A359B053290}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1124,6 +1124,56 @@
     </r>
   </si>
   <si>
+    <t>For Active supplier couldn’t edit only View,it gets diaplayed the max number is one number for SMS and Whatsapp</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">You can Edit only for </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Passive </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>supplier can View and Edit, single field for entering only 1 number in each field as</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> SMS and Whatsapp</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> field</t>
+    </r>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">It gets displayed </t>
     </r>
@@ -1136,57 +1186,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>"Minimum order field,                                                  Delivery policy &amp; cutoff times :- 1. Do not apply delivery fee        2.Apply fee and Cancelling after cutoff                                                    3.Cancelling after cutOff                                                                           4.Delivery on and CutOff time"</t>
-    </r>
-  </si>
-  <si>
-    <t>For Active supplier couldn’t edit only View,it gets diaplayed the max number is one number for SMS and Whatsapp</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">You can Edit only for </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Passive </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>supplier can View and Edit, single field for entering only 1 number in each field as</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> SMS and Whatsapp</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> field</t>
+      <t>"Minimum order field,                                                  Delivery policy &amp; cutoff times :-                                                                               1. Do not apply delivery fee                                                                       2.Apply fee and Cancelling after cutoff                                                    3.Cancelling after cutOff                                                                           4.Delivery on and CutOff time"</t>
     </r>
   </si>
 </sst>
@@ -1645,8 +1645,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D5" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="C7" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1844,7 +1844,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="100.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1861,7 +1861,7 @@
         <v>78</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G9" t="s">
         <v>12</v>
@@ -1878,10 +1878,10 @@
         <v>74</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G10" t="s">
         <v>12</v>

--- a/Buyer hub/Outlets/Manual testcases/Outlets-View suppliers.xlsx
+++ b/Buyer hub/Outlets/Manual testcases/Outlets-View suppliers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zm-buyerautomation\Buyer hub\Outlets\Manual testcases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90BA0225-CFFF-46B5-A007-5A359B053290}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76899F90-5D57-4968-973B-485B0134CC56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="82">
   <si>
     <t>SL. No</t>
   </si>
@@ -709,9 +709,6 @@
     </r>
   </si>
   <si>
-    <t>It display the Options and right side select all or Deselect all and click Ok option ,It displayed successfully copied</t>
-  </si>
-  <si>
     <t>It successfully downloaded</t>
   </si>
   <si>
@@ -910,6 +907,255 @@
   </si>
   <si>
     <r>
+      <t xml:space="preserve">Once download the marketlist and open the Excel file,It should display include </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Custom name and Buyer product code"</t>
+    </r>
+  </si>
+  <si>
+    <t>It gets displayed the Custom name and Buyer product code in Excel.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Action-&gt;View suppliers-&gt;Marketlist screen-&gt;select checkbox</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>(new)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">It gets displayed the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>View orders,View market list and View supplier settings</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Action-&gt;View suppliers-&gt;View supplier settings</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">It shows </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Orders under Notifications, minimum order, Delivery policy &amp; cutoff times, Invoices and Invoice details, Cancel and Save"</t>
+    </r>
+  </si>
+  <si>
+    <t>It gets displayed</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Action-&gt;View suppliers-&gt;View supplier settings-&gt;Notifications</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Action-&gt;View suppliers-&gt;View supplier settings-&gt;Invoices</t>
+    </r>
+  </si>
+  <si>
+    <t>Invoice details : Recipient email, Payment terms, Our salesperson, Notes</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Action-&gt;View suppliers-&gt;Marketlist screen-&gt;Options(new)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">By email field and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Other notifications methods SMS and WhatsApp and Add button"</t>
+    </r>
+  </si>
+  <si>
+    <t>For Active supplier couldn’t edit only View,it gets diaplayed the max number is one number for SMS and Whatsapp</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">You can Edit only for </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Passive </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>supplier can View and Edit, single field for entering only 1 number in each field as</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> SMS and Whatsapp</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> field</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">It gets displayed </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Minimum order field,                                                  Delivery policy &amp; cutoff times :-                                                                               1. Do not apply delivery fee                                                                       2.Apply fee and Cancelling after cutoff                                                    3.Cancelling after cutOff                                                                           4.Delivery on and CutOff time"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">It display the Options and right side </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>select all or Deselect all</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and click Ok option ,It displayed successfully copied</t>
+    </r>
+  </si>
+  <si>
+    <r>
       <t xml:space="preserve">Select the </t>
     </r>
     <r>
@@ -942,7 +1188,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">1. Select what to copy : Custom name, Tags, Buyer product code, Unit price and MOQ    </t>
+      <t>1. Select what to copy : Custom name, Item status(enabled/disabled), Tags, Buyer product code, Unit price, MOQ  and 'Also copy items not already in outlets selected below' (this checkbox is not selected by default )</t>
     </r>
     <r>
       <rPr>
@@ -964,229 +1210,6 @@
         <scheme val="minor"/>
       </rPr>
       <t>2.Copy to : Outlet name and Ok</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Once download the marketlist and open the Excel file,It should display include </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"Custom name and Buyer product code"</t>
-    </r>
-  </si>
-  <si>
-    <t>It gets displayed the Custom name and Buyer product code in Excel.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Action-&gt;View suppliers-&gt;Marketlist screen-&gt;select checkbox</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>(new)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">It gets displayed the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>View orders,View market list and View supplier settings</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Action-&gt;View suppliers-&gt;View supplier settings</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">It shows </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"Orders under Notifications, minimum order, Delivery policy &amp; cutoff times, Invoices and Invoice details, Cancel and Save"</t>
-    </r>
-  </si>
-  <si>
-    <t>It gets displayed</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Action-&gt;View suppliers-&gt;View supplier settings-&gt;Notifications</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Action-&gt;View suppliers-&gt;View supplier settings-&gt;Invoices</t>
-    </r>
-  </si>
-  <si>
-    <t>Invoice details : Recipient email, Payment terms, Our salesperson, Notes</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Action-&gt;View suppliers-&gt;Marketlist screen-&gt;Options(new)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">By email field and </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"Other notifications methods SMS and WhatsApp and Add button"</t>
-    </r>
-  </si>
-  <si>
-    <t>For Active supplier couldn’t edit only View,it gets diaplayed the max number is one number for SMS and Whatsapp</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">You can Edit only for </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Passive </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>supplier can View and Edit, single field for entering only 1 number in each field as</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> SMS and Whatsapp</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> field</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">It gets displayed </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"Minimum order field,                                                  Delivery policy &amp; cutoff times :-                                                                               1. Do not apply delivery fee                                                                       2.Apply fee and Cancelling after cutoff                                                    3.Cancelling after cutOff                                                                           4.Delivery on and CutOff time"</t>
     </r>
   </si>
 </sst>
@@ -1331,7 +1354,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1357,10 +1380,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1645,8 +1665,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C7" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1742,11 +1762,11 @@
       <c r="D4" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="11" t="s">
-        <v>55</v>
+      <c r="E4" s="9" t="s">
+        <v>54</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G4" t="s">
         <v>12</v>
@@ -1763,13 +1783,13 @@
         <v>8</v>
       </c>
       <c r="D5" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E5" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="E5" s="11" t="s">
-        <v>54</v>
-      </c>
       <c r="F5" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G5" t="s">
         <v>12</v>
@@ -1786,13 +1806,13 @@
         <v>8</v>
       </c>
       <c r="D6" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="F6" s="9" t="s">
         <v>57</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>58</v>
       </c>
       <c r="G6" t="s">
         <v>12</v>
@@ -1809,13 +1829,13 @@
         <v>8</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="E7" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="F7" s="9" t="s">
         <v>60</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>61</v>
       </c>
       <c r="G7" t="s">
         <v>12</v>
@@ -1832,13 +1852,13 @@
         <v>8</v>
       </c>
       <c r="D8" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="F8" s="9" t="s">
         <v>71</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>73</v>
       </c>
       <c r="G8" t="s">
         <v>12</v>
@@ -1855,13 +1875,13 @@
         <v>8</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>78</v>
+        <v>72</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>76</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G9" t="s">
         <v>12</v>
@@ -1875,13 +1895,13 @@
         <v>8</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>80</v>
+        <v>72</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>78</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G10" t="s">
         <v>12</v>
@@ -1898,13 +1918,13 @@
         <v>8</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>76</v>
+        <v>73</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>74</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G11" t="s">
         <v>12</v>
@@ -2220,19 +2240,19 @@
         <v>8</v>
       </c>
       <c r="D25" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="E25" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="E25" s="9" t="s">
+      <c r="F25" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="F25" s="9" t="s">
-        <v>65</v>
-      </c>
       <c r="G25" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="116.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>24</v>
       </c>
@@ -2243,16 +2263,13 @@
         <v>8</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="F26" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="G26" t="s">
-        <v>12</v>
+        <v>80</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="54" customHeight="1" x14ac:dyDescent="0.25">
@@ -2269,10 +2286,10 @@
         <v>50</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F27" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G27" t="s">
         <v>12</v>
@@ -2289,13 +2306,13 @@
         <v>8</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F28" s="9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G28" t="s">
         <v>12</v>

--- a/Buyer hub/Outlets/Manual testcases/Outlets-View suppliers.xlsx
+++ b/Buyer hub/Outlets/Manual testcases/Outlets-View suppliers.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zm-buyerautomation\Buyer hub\Outlets\Manual testcases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76899F90-5D57-4968-973B-485B0134CC56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{643BA438-610D-4B52-9C26-5DE0A5A620E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="82">
   <si>
     <t>SL. No</t>
   </si>
@@ -1665,8 +1665,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2271,6 +2271,9 @@
       <c r="F26" s="9" t="s">
         <v>80</v>
       </c>
+      <c r="G26" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="27" spans="1:7" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27">

--- a/Buyer hub/Outlets/Manual testcases/Outlets-View suppliers.xlsx
+++ b/Buyer hub/Outlets/Manual testcases/Outlets-View suppliers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zm-buyerautomation\Buyer hub\Outlets\Manual testcases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{643BA438-610D-4B52-9C26-5DE0A5A620E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B1F7CDE-AC50-4622-BDD8-C08BA7A9B3B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1167,7 +1167,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>'Copy data to another outlet'</t>
+      <t>'Copy to another outlet'</t>
     </r>
     <r>
       <rPr>
@@ -1665,8 +1665,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView tabSelected="1" topLeftCell="C23" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Buyer hub/Outlets/Manual testcases/Outlets-View suppliers.xlsx
+++ b/Buyer hub/Outlets/Manual testcases/Outlets-View suppliers.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zm-buyerautomation\Buyer hub\Outlets\Manual testcases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B1F7CDE-AC50-4622-BDD8-C08BA7A9B3B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F7B225E-6944-4E62-BC5B-5AF8A4749436}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1047,6 +1047,156 @@
     </r>
   </si>
   <si>
+    <t>For Active supplier couldn’t edit only View,it gets diaplayed the max number is one number for SMS and Whatsapp</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">You can Edit only for </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Passive </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>supplier can View and Edit, single field for entering only 1 number in each field as</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> SMS and Whatsapp</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> field</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">It gets displayed </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Minimum order field,                                                  Delivery policy &amp; cutoff times :-                                                                               1. Do not apply delivery fee                                                                       2.Apply fee and Cancelling after cutoff                                                    3.Cancelling after cutOff                                                                           4.Delivery on and CutOff time"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">It display the Options and right side </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>select all or Deselect all</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and click Ok option ,It displayed successfully copied</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Select the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'Copy to another outlet'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">,it comes pop up page is like                                                                                                                                  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1. Select what to copy : Custom name, Item status(enabled/disabled), Tags, Buyer product code, Unit price, MOQ  and 'Also copy items not already in outlets selected below' (this checkbox is not selected by default )</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">                                                                                                                </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2.Copy to : Outlet name and Ok</t>
+    </r>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">By email field and </t>
     </r>
@@ -1061,155 +1211,15 @@
       </rPr>
       <t>"Other notifications methods SMS and WhatsApp and Add button"</t>
     </r>
-  </si>
-  <si>
-    <t>For Active supplier couldn’t edit only View,it gets diaplayed the max number is one number for SMS and Whatsapp</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">You can Edit only for </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Passive </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>supplier can View and Edit, single field for entering only 1 number in each field as</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> SMS and Whatsapp</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> field</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">It gets displayed </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"Minimum order field,                                                  Delivery policy &amp; cutoff times :-                                                                               1. Do not apply delivery fee                                                                       2.Apply fee and Cancelling after cutoff                                                    3.Cancelling after cutOff                                                                           4.Delivery on and CutOff time"</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">It display the Options and right side </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>select all or Deselect all</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> and click Ok option ,It displayed successfully copied</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Select the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>'Copy to another outlet'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">,it comes pop up page is like                                                                                                                                  </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1. Select what to copy : Custom name, Item status(enabled/disabled), Tags, Buyer product code, Unit price, MOQ  and 'Also copy items not already in outlets selected below' (this checkbox is not selected by default )</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">                                                                                                                </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2.Copy to : Outlet name and Ok</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Allow up to 20 characters for all markets)</t>
     </r>
   </si>
 </sst>
@@ -1665,8 +1675,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C23" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView tabSelected="1" topLeftCell="C7" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1878,10 +1888,10 @@
         <v>72</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G9" t="s">
         <v>12</v>
@@ -1898,10 +1908,10 @@
         <v>72</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G10" t="s">
         <v>12</v>
@@ -2266,10 +2276,10 @@
         <v>67</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F26" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G26" t="s">
         <v>12</v>

--- a/Buyer hub/Outlets/Manual testcases/Outlets-View suppliers.xlsx
+++ b/Buyer hub/Outlets/Manual testcases/Outlets-View suppliers.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zm-buyerautomation\Buyer hub\Outlets\Manual testcases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C1EB0AD-6BE5-486E-BF2D-7E854801E2E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AC183FE-A6F8-47FC-BC77-D3DB4675BF86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="92">
   <si>
     <t>SL. No</t>
   </si>
@@ -1149,18 +1149,284 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">User can now assign 'Expense category' to each SKU.                    1.This dropdown field is only editable by users with </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>'manage accounting permission'</t>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Action-&gt;View suppliers-&gt;Marketlist screen</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>&gt;Click on the SKU</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">It displayed the Product code or name, Show Favourites only, Add SKU, Options and Below that </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'Prod.code, Name, Custom prod.code, Price($) and MOQ'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Action-&gt;View suppliers-&gt;Marketlist screen</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>(new )</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Saved expense categories are displayed in a new column to the right of </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'Custom product code'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Action-&gt;View suppliers-&gt;Check box</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>(new)</t>
+    </r>
+  </si>
+  <si>
+    <t>It displayed Clear, Edit tags,Edit expense category, Enable/Disable, Delete and Copy to..</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Marketlist screen </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>&gt; click on the SKU(new)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Action-&gt;View suppliers-&gt;Check box</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>&gt;Edit expense category</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>(new)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">User can apply a new expense category to the selected items As each item can only have 1 expense category, any existing categories will be removed and replaced by the new category.once hit the Edit expense category, it shows pop up as </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'Dropdown list, Add new and Save button'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Select the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'Copy to another outlet'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">,it comes pop up page is like                                                                                                                                  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1. Select what to copy : Custom name, Item status(enabled/disabled), Tags, Expense categories, Buyer product code, Unit price, MOQ  and 'Also copy items not already in outlets selected below' (this checkbox is not selected by default )</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">                                                                                                                </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2.Copy to : Outlet name and Ok</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">User can now assign </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">'Expense category' </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">to each SKU.                    1.This dropdown field is only editable by users with </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'Manage accounting permission'</t>
     </r>
     <r>
       <rPr>
@@ -1256,249 +1522,10 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Action-&gt;View suppliers-&gt;Marketlist screen</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>&gt;Click on the SKU</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">It displayed the Product code or name, Show Favourites only, Add SKU, Options and Below that </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>'Prod.code, Name, Custom prod.code, Price($) and MOQ'</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Action-&gt;View suppliers-&gt;Marketlist screen</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>(new )</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Saved expense categories are displayed in a new column to the right of </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>'Custom product code'</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Action-&gt;View suppliers-&gt;Check box</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>(new)</t>
-    </r>
-  </si>
-  <si>
-    <t>It displayed Clear, Edit tags,Edit expense category, Enable/Disable, Delete and Copy to..</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Marketlist screen </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>&gt; click on the SKU(new)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Action-&gt;View suppliers-&gt;Check box</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>&gt;Edit expense category</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>(new)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">User can apply a new expense category to the selected items As each item can only have 1 expense category, any existing categories will be removed and replaced by the new category.once hit the Edit expense category, it shows pop up as </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>'Dropdown list, Add new and Save button'</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Select the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>'Copy to another outlet'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">,it comes pop up page is like                                                                                                                                  </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1. Select what to copy : Custom name, Item status(enabled/disabled), Tags, Expense categories, Buyer product code, Unit price, MOQ  and 'Also copy items not already in outlets selected below' (this checkbox is not selected by default )</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">                                                                                                                </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2.Copy to : Outlet name and Ok</t>
-    </r>
+    <t>Once click the Save and Saved ,its get displayed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Its get displayed MarketList Updated Successfully </t>
   </si>
 </sst>
 </file>
@@ -1966,8 +1993,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2136,7 +2163,7 @@
         <v>57</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G7" t="s">
         <v>12</v>
@@ -2291,13 +2318,13 @@
         <v>8</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E14" t="s">
         <v>21</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G14" t="s">
         <v>12</v>
@@ -2360,12 +2387,17 @@
         <v>8</v>
       </c>
       <c r="D17" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="E17" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="E17" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="F17" s="9"/>
+      <c r="F17" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="G17" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="18" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18">
@@ -2470,12 +2502,17 @@
         <v>8</v>
       </c>
       <c r="D22" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E22" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="E22" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="F22" s="9"/>
+      <c r="F22" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="G22" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="23" spans="1:7" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23">
@@ -2606,7 +2643,7 @@
         <v>64</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F28" s="9" t="s">
         <v>75</v>
@@ -2672,7 +2709,7 @@
         <v>8</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E31" s="9" t="s">
         <v>77</v>
@@ -2695,10 +2732,16 @@
         <v>8</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>79</v>
+        <v>89</v>
+      </c>
+      <c r="F32" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="G32" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Buyer hub/Outlets/Manual testcases/Outlets-View suppliers.xlsx
+++ b/Buyer hub/Outlets/Manual testcases/Outlets-View suppliers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zm-buyerautomation\Buyer hub\Outlets\Manual testcases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AC183FE-A6F8-47FC-BC77-D3DB4675BF86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBCA534C-72E6-43D0-AFE3-E961B573742A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="93">
   <si>
     <t>SL. No</t>
   </si>
@@ -1526,6 +1526,40 @@
   </si>
   <si>
     <t xml:space="preserve">Its get displayed MarketList Updated Successfully </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Action-&gt;View suppliers-&gt;View supplier settings-&gt;Notifications</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>&gt; by SMS and whatsApp</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1993,8 +2027,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView tabSelected="1" topLeftCell="C6" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2203,7 +2237,7 @@
         <v>8</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>69</v>
+        <v>92</v>
       </c>
       <c r="E9" s="9" t="s">
         <v>76</v>
